--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1802,7 +1802,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04704718080954778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06534444302693436</v>
+        <v>0.06534444302693437</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02590946761180031</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01446948272476855</v>
+        <v>0.01416049897877515</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03293223174568116</v>
+        <v>0.03190011685107507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02863720580155359</v>
+        <v>0.02769930173949679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03276417649168412</v>
+        <v>0.0351984778300257</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01407622544508414</v>
+        <v>0.0133341579730948</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03230976778041274</v>
+        <v>0.03244919777118421</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02957745301658416</v>
+        <v>0.02856730698788448</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04140369456234614</v>
+        <v>0.04250497710653596</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01736974902102375</v>
+        <v>0.01759647622606862</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03655060178972293</v>
+        <v>0.03581463628228314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03376490275780483</v>
+        <v>0.03294453909017465</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04647948787422879</v>
+        <v>0.04445490217957022</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04291288471011535</v>
+        <v>0.04232790246202844</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07616629830778199</v>
+        <v>0.07545307503151623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07641018001093515</v>
+        <v>0.07194938128349153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1149602480669837</v>
+        <v>0.121165680134778</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04481378170412877</v>
+        <v>0.04304123092847513</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07359234160884474</v>
+        <v>0.0747884735204226</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07212953434509418</v>
+        <v>0.06943926847247013</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.117457270275454</v>
+        <v>0.1208252519311881</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03759295405454307</v>
+        <v>0.03741117242995007</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0652142154690168</v>
+        <v>0.06448985495264993</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06505042551076443</v>
+        <v>0.06274718437311762</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1036839348131954</v>
+        <v>0.0985534949370362</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04827030969080804</v>
+        <v>0.04869143379387519</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07186703597624747</v>
+        <v>0.07392136918853864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0641415359559698</v>
+        <v>0.06562698956830962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06975236279394668</v>
+        <v>0.07090404038645223</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05308865783609587</v>
+        <v>0.05411101030510315</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09580335890625599</v>
+        <v>0.09781459953782431</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0997155083475624</v>
+        <v>0.09908256241761768</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08405936700514026</v>
+        <v>0.08236287260319364</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05533298073809476</v>
+        <v>0.05504752189773999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09084410405670675</v>
+        <v>0.09134725564677103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08792016565128008</v>
+        <v>0.08555803557781481</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0877107329112404</v>
+        <v>0.08616125030460206</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08586772557007233</v>
+        <v>0.0862134803303151</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1179386415073845</v>
+        <v>0.117006087455724</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1135802142217684</v>
+        <v>0.1133719887136797</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1402617223039376</v>
+        <v>0.1462530094574991</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09619630632715546</v>
+        <v>0.09554902128810455</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1525601655928402</v>
+        <v>0.1512988494393932</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1542399982753709</v>
+        <v>0.1549085495277503</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.14279486944484</v>
+        <v>0.1448812552791382</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08294152870830267</v>
+        <v>0.08220591936621259</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1261025010722663</v>
+        <v>0.1262158050422338</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1230210734962033</v>
+        <v>0.1230620843946084</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1331959248807761</v>
+        <v>0.1340692724455695</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1283548675181418</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1523079949669883</v>
+        <v>0.1523079949669882</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1170921226169322</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1049496360301096</v>
+        <v>0.1059567108198913</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1467561072140383</v>
+        <v>0.1481181662554702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.110733342887075</v>
+        <v>0.108804939241858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1180233240132294</v>
+        <v>0.1136163366954969</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08414652909856826</v>
+        <v>0.08355139995321891</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1246071133324957</v>
+        <v>0.1243021557132252</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1055929574242306</v>
+        <v>0.1026181728095816</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1287614056217378</v>
+        <v>0.1268447975399111</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1004083286278966</v>
+        <v>0.1014279954773585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1436178336031254</v>
+        <v>0.1442784010273352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1134734390335716</v>
+        <v>0.1144959023143185</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1288752612130989</v>
+        <v>0.1310989207597983</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1559446251114701</v>
+        <v>0.1605032922284948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2072912068813999</v>
+        <v>0.2082107214547779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1635784843204691</v>
+        <v>0.164917179166889</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1779547293303269</v>
+        <v>0.1732864546189085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1320472833562942</v>
+        <v>0.1315942749311058</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1804969091362609</v>
+        <v>0.1825289534381514</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1583460939532781</v>
+        <v>0.1580578066746877</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1786101702314488</v>
+        <v>0.1783324262087683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1363204726141346</v>
+        <v>0.136840636612794</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1836434317029974</v>
+        <v>0.1856302820596481</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1520992264462001</v>
+        <v>0.1553841832843271</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.169076280208531</v>
+        <v>0.1684823846064701</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1169661686870196</v>
+        <v>0.1167809981732156</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1713276125843363</v>
+        <v>0.1651951739674187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1997492766918957</v>
+        <v>0.194831115919432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1729116370602476</v>
+        <v>0.1733550062130463</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1181426810377399</v>
+        <v>0.1195949778215507</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1934040370971287</v>
+        <v>0.1949665776497997</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1368977135151953</v>
+        <v>0.1354224080817751</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1488053373142559</v>
+        <v>0.1455748845813798</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1260153102319908</v>
+        <v>0.1259208254360074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1912008102916506</v>
+        <v>0.1898974151762202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1769513825209552</v>
+        <v>0.1759415061535639</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.166699259148482</v>
+        <v>0.1665683398949346</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1806451537436128</v>
+        <v>0.1907781015809209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2395051358865485</v>
+        <v>0.239368813647397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2670714127753344</v>
+        <v>0.2694014828503456</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2365689250089224</v>
+        <v>0.2364154423315162</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1777054704683781</v>
+        <v>0.1813357848907517</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2677323569616367</v>
+        <v>0.2673725859150077</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1993514171456823</v>
+        <v>0.1941882420375346</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1924213450022331</v>
+        <v>0.1929298442108006</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1687154826571909</v>
+        <v>0.1739486419730016</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.241777370793854</v>
+        <v>0.242359470029362</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2243692660201873</v>
+        <v>0.2210786512363701</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2059741994071093</v>
+        <v>0.2046685738153989</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1812678264139688</v>
+        <v>0.1813715283103093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.184050396864349</v>
+        <v>0.183120662895521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2064458083645727</v>
+        <v>0.1999792921063459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2105682569233412</v>
+        <v>0.2094522057890566</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1865682449815671</v>
+        <v>0.1847966132558889</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2545386842800417</v>
+        <v>0.2509589566979223</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2306685617925825</v>
+        <v>0.2305335554221235</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1891639811473139</v>
+        <v>0.188739214534108</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1906464992792045</v>
+        <v>0.1958711603130566</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2304131977742448</v>
+        <v>0.2314334522716574</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2272345239196236</v>
+        <v>0.2256482882656619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2059547498827267</v>
+        <v>0.2077252702998363</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2646974656639612</v>
+        <v>0.2629682424650135</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2673056127367949</v>
+        <v>0.2702221350783168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2850842621960346</v>
+        <v>0.2850174908398687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2764479441428308</v>
+        <v>0.2747148657724808</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2663119506799671</v>
+        <v>0.2641386103940928</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3461913865659222</v>
+        <v>0.343562366685612</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3172197615102957</v>
+        <v>0.3152076494269664</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2400172879117518</v>
+        <v>0.239462499218302</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2523653441687604</v>
+        <v>0.2561429049939472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2928522904337801</v>
+        <v>0.2909504154921438</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2866768955061545</v>
+        <v>0.2877938602016386</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2493723549803047</v>
+        <v>0.2506212774545428</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1302698837361746</v>
+        <v>0.126268249869826</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2111064763962809</v>
+        <v>0.2090576062605273</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.236868752073026</v>
+        <v>0.2320283716935555</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2043418607470525</v>
+        <v>0.2043354244743776</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2694129807198657</v>
+        <v>0.2709739958145816</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.358178068921165</v>
+        <v>0.3573906294486688</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2677539870765616</v>
+        <v>0.266511679052234</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2158846558989133</v>
+        <v>0.2156508719890207</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2149355545450177</v>
+        <v>0.2158803158972213</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2964038980781242</v>
+        <v>0.3024656182063122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2648485149522228</v>
+        <v>0.2618216973143968</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2183018223314453</v>
+        <v>0.2153242736705186</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2163657743004941</v>
+        <v>0.2160094062888318</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3171660843741888</v>
+        <v>0.3220728621027099</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3378639966779142</v>
+        <v>0.3296875353512959</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2760940533945293</v>
+        <v>0.2751614510365114</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3636076305181186</v>
+        <v>0.3642240616694808</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4651665737251178</v>
+        <v>0.4659890298528684</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3653711020511951</v>
+        <v>0.3692607000262782</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.274312900070075</v>
+        <v>0.2767207486781836</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.283767976642648</v>
+        <v>0.2837836280575194</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3757262555858941</v>
+        <v>0.3802675089174588</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3348232057524569</v>
+        <v>0.3348279381640208</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2652982207412599</v>
+        <v>0.264459801355891</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1627202419931379</v>
+        <v>0.1600022789710663</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.188529829804739</v>
+        <v>0.1861790588513305</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1720674313214952</v>
+        <v>0.1711782132844972</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1325099890255831</v>
+        <v>0.1319479300382876</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2588654908614496</v>
+        <v>0.255136865793801</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3005951139859676</v>
+        <v>0.3035123928485085</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2946373642407448</v>
+        <v>0.2935971006322211</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2000900621271537</v>
+        <v>0.1997585017812759</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2348680077011891</v>
+        <v>0.2368887028652614</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2714075596090252</v>
+        <v>0.270439461161245</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2548633491400555</v>
+        <v>0.2549587227202008</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1790091554328044</v>
+        <v>0.1805014702852463</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2779573216443929</v>
+        <v>0.2796529989360918</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3041685458823256</v>
+        <v>0.3046532985940607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2709213595403661</v>
+        <v>0.2722498703683074</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2062822737097744</v>
+        <v>0.2012038407057628</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3616650719062407</v>
+        <v>0.36530272397051</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4109657532904575</v>
+        <v>0.4124801776421841</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4159047170995543</v>
+        <v>0.4135739282204235</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2595080359734051</v>
+        <v>0.2605633662342461</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3140583654655075</v>
+        <v>0.3161545586714939</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3550982078090393</v>
+        <v>0.3494205102378454</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3404935646987355</v>
+        <v>0.3367317746445704</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2270065549184754</v>
+        <v>0.2250498761045852</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.1784961065829205</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7051</v>
+        <v>6901</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14793</v>
+        <v>14329</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11591</v>
+        <v>11211</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13008</v>
+        <v>13974</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6554</v>
+        <v>6208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13668</v>
+        <v>13727</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11308</v>
+        <v>10922</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14622</v>
+        <v>15011</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16552</v>
+        <v>16768</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31880</v>
+        <v>31239</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>26575</v>
+        <v>25929</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>34867</v>
+        <v>33349</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20912</v>
+        <v>20627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34213</v>
+        <v>33893</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30926</v>
+        <v>29121</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45640</v>
+        <v>48104</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20865</v>
+        <v>20039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31132</v>
+        <v>31638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27576</v>
+        <v>26548</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41481</v>
+        <v>42671</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35822</v>
+        <v>35649</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56882</v>
+        <v>56250</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51198</v>
+        <v>49386</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77780</v>
+        <v>73932</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35244</v>
+        <v>35551</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49029</v>
+        <v>50430</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36903</v>
+        <v>37758</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33010</v>
+        <v>33555</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32994</v>
+        <v>33629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>56908</v>
+        <v>58103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53894</v>
+        <v>53552</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41448</v>
+        <v>40612</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>74789</v>
+        <v>74403</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>115937</v>
+        <v>116579</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>98103</v>
+        <v>95467</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>84757</v>
+        <v>83260</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62695</v>
+        <v>62947</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80459</v>
+        <v>79823</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65347</v>
+        <v>65228</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66378</v>
+        <v>69213</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>59784</v>
+        <v>59382</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>90622</v>
+        <v>89873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83363</v>
+        <v>83724</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>70410</v>
+        <v>71439</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>112105</v>
+        <v>111111</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>160935</v>
+        <v>161080</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>137269</v>
+        <v>137315</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>128711</v>
+        <v>129555</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>66751</v>
+        <v>67392</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>97870</v>
+        <v>98778</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72474</v>
+        <v>71212</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>72463</v>
+        <v>69757</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>57796</v>
+        <v>57388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>85989</v>
+        <v>85778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>67364</v>
+        <v>65466</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>79393</v>
+        <v>78211</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>132829</v>
+        <v>134178</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>194884</v>
+        <v>195781</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>146659</v>
+        <v>147980</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>158589</v>
+        <v>161325</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>99186</v>
+        <v>102085</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>138240</v>
+        <v>138853</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>107060</v>
+        <v>107937</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>109260</v>
+        <v>106393</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>90697</v>
+        <v>90386</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>124557</v>
+        <v>125959</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>101019</v>
+        <v>100835</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>110129</v>
+        <v>109958</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>180337</v>
+        <v>181025</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>249198</v>
+        <v>251894</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>196581</v>
+        <v>200826</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>208059</v>
+        <v>207328</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60385</v>
+        <v>60290</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>103554</v>
+        <v>99848</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>125240</v>
+        <v>122156</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>119103</v>
+        <v>119408</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>59983</v>
+        <v>60720</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>115700</v>
+        <v>116634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85758</v>
+        <v>84834</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>106667</v>
+        <v>104351</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>129037</v>
+        <v>128940</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>229948</v>
+        <v>228380</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>221795</v>
+        <v>220530</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>234317</v>
+        <v>234133</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93260</v>
+        <v>98492</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>144762</v>
+        <v>144680</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>167450</v>
+        <v>168911</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>162951</v>
+        <v>162845</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>90223</v>
+        <v>92067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>160165</v>
+        <v>159950</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>124882</v>
+        <v>121647</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>137932</v>
+        <v>138296</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>172761</v>
+        <v>178119</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>290774</v>
+        <v>291474</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>281230</v>
+        <v>277106</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>289523</v>
+        <v>287688</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>69586</v>
+        <v>69626</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77185</v>
+        <v>76795</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>95745</v>
+        <v>92746</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>124599</v>
+        <v>123938</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>73690</v>
+        <v>72991</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>111089</v>
+        <v>109527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>109302</v>
+        <v>109238</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>111636</v>
+        <v>111386</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>148488</v>
+        <v>152557</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>197188</v>
+        <v>198061</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>213060</v>
+        <v>211573</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>243414</v>
+        <v>245507</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>101614</v>
+        <v>100950</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>112100</v>
+        <v>113323</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>132216</v>
+        <v>132185</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>163581</v>
+        <v>162556</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>105187</v>
+        <v>104329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>151089</v>
+        <v>149942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>150314</v>
+        <v>149360</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>141648</v>
+        <v>141320</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>196558</v>
+        <v>199500</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>250624</v>
+        <v>248996</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>268795</v>
+        <v>269842</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>294729</v>
+        <v>296205</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>37404</v>
+        <v>36255</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>64031</v>
+        <v>63409</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>75355</v>
+        <v>73815</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>80488</v>
+        <v>80485</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>91501</v>
+        <v>92031</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>117804</v>
+        <v>117545</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>93045</v>
+        <v>92613</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>89912</v>
+        <v>89814</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>134713</v>
+        <v>135305</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>187389</v>
+        <v>191221</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>176291</v>
+        <v>174276</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>176905</v>
+        <v>174492</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62125</v>
+        <v>62023</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>96200</v>
+        <v>97688</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>107484</v>
+        <v>104883</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>108750</v>
+        <v>108383</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>123492</v>
+        <v>123702</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>152992</v>
+        <v>153263</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>126966</v>
+        <v>128318</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>114246</v>
+        <v>115249</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>177855</v>
+        <v>177865</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>237538</v>
+        <v>240409</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>222868</v>
+        <v>222871</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>214989</v>
+        <v>214309</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>33086</v>
+        <v>32533</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>44293</v>
+        <v>43741</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>39654</v>
+        <v>39449</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>38914</v>
+        <v>38749</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>81991</v>
+        <v>80810</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>101259</v>
+        <v>102241</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>98346</v>
+        <v>97999</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>81235</v>
+        <v>81101</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>122145</v>
+        <v>123196</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>155191</v>
+        <v>154638</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>143805</v>
+        <v>143859</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>125246</v>
+        <v>126290</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>56517</v>
+        <v>56862</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>71462</v>
+        <v>71576</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>62435</v>
+        <v>62741</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>60579</v>
+        <v>59087</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>114551</v>
+        <v>115703</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>138438</v>
+        <v>138948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>138824</v>
+        <v>138046</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>105359</v>
+        <v>105787</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>163329</v>
+        <v>164419</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>203046</v>
+        <v>199799</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>192121</v>
+        <v>189999</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>158828</v>
+        <v>157459</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
     </row>
     <row r="36">
